--- a/target/test-classes/users.xlsx
+++ b/target/test-classes/users.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\IdeaProjects\gmsarena\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\IdeaProjects\gsmarena\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,16 +38,16 @@
     <t>row</t>
   </si>
   <si>
-    <t>pepe65321844255320987643301</t>
-  </si>
-  <si>
-    <t>juan1033232142437723dfg</t>
-  </si>
-  <si>
-    <t>pepepsep345o5551666523@gmail.com</t>
-  </si>
-  <si>
-    <t>juanssci435to111234234123@gmail.com</t>
+    <t>pepe6532221844255320987643301</t>
+  </si>
+  <si>
+    <t>juan103323214442437723dfg</t>
+  </si>
+  <si>
+    <t>pepepsep345o555122666523@gmail.com</t>
+  </si>
+  <si>
+    <t>juanssci435to11551234234123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
